--- a/medicine/Psychotrope/Kafenío/Kafenío.xlsx
+++ b/medicine/Psychotrope/Kafenío/Kafenío.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kafen%C3%ADo</t>
+          <t>Kafenío</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kafenío (en grec καφενείο, katharévousa καφενεῖον) désigne la maison de café traditionnelle grecque. 
 Le kafenío est en général le lieu social central d’un village ou d’un quartier d’une ville. C’est là que l’on se rencontre après le travail pour discuter, jouer aux cartes ou au tavli (une variante du backgammon), ou simplement pour se détendre en jouant avec un komboloï en observant les passants. Les boissons courantes que l'on y sert sont le café grec (Cafés Ellinikós), en été le café frappé, de la bière, de la retsina ou de l’ouzo avec des mezedes (petites entrées). Durant la journée ce sont en général uniquement les hommes âgés du village qui s'y retrouvent. L'aménagement d'un kafenío est souvent sobre et le mobilier se résume aux chaises grecques typiques en bois et à de petites tables en bois ou métalliques, le tout sur fond de murs blanchis à la chaux qui transmettent cette atmosphère si typique qui est désormais immortalisée sur de nombreuses cartes postales.
